--- a/file/平台新标抓取计划时间表.xlsx
+++ b/file/平台新标抓取计划时间表.xlsx
@@ -897,7 +897,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178">
   <si>
     <r>
       <rPr>
@@ -965,9 +965,8 @@
   </si>
   <si>
     <t>week1(2.29-3.5)-&gt;国资系(36): 完成国资系平台新标的抓取,总结定义公用模块进行封装
-week2(3.7-3.12)-&gt;上市公司(38):完成上市公司平台新标的抓取,增加改进优化公用模块.
-week3(3.14-3.19)-&gt;风投系(68):完成国资系平台新标的抓取,完成国资系平台新标的抓取
-week4(3.21-3.26)-&gt;创业系+网贷基金(26):完成创业系平台,网贷基金平台新标的抓取(2/天),剩余3/天项目整体性能调试优化,新标通知功能,时效性检查,以及后续检查整合工作.</t>
+week2(3.7-3.12)-&gt;上市公司(38)+创业系+网贷基金(26):完成上市公司,创业系平台,网贷基金平台新标的抓取,增加改进优化公用模块.
+week3(3.14-3.20)-&gt;风投系(68):完成国资系平台新标的抓取,完成国资系平台新标的抓取.项目整体性能调试优化,新标通知功能,时效性检查,以及后续检查整合工作.</t>
   </si>
   <si>
     <t xml:space="preserve">  平台</t>
@@ -1013,6 +1012,9 @@
   </si>
   <si>
     <t>汉金所</t>
+  </si>
+  <si>
+    <t>(暂定)</t>
   </si>
   <si>
     <t>楚天财富网</t>
@@ -1020,6 +1022,9 @@
   <si>
     <t xml:space="preserve">融和贷
 </t>
+  </si>
+  <si>
+    <t>(js)</t>
   </si>
   <si>
     <t xml:space="preserve">汇付四海
@@ -1501,9 +1506,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -1541,6 +1546,13 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1595,9 +1607,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF002060"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1605,14 +1624,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1634,28 +1645,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1663,39 +1652,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1709,9 +1666,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1726,9 +1683,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1740,21 +1712,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF7030A0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7030A0"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1792,13 +1796,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1816,7 +1814,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1828,7 +1844,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1840,25 +1886,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1870,7 +1910,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1882,97 +1976,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1986,11 +1990,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2010,6 +2020,44 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2021,15 +2069,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2048,51 +2087,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2101,137 +2105,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2241,6 +2245,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
@@ -2255,103 +2262,102 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2697,8 +2703,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2712,1040 +2718,1049 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="60" customHeight="1" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="8" t="s">
+      <c r="C16" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="8" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="C17" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="8" t="s">
-        <v>19</v>
+      <c r="A19" s="6"/>
+      <c r="B19" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="8" t="s">
-        <v>20</v>
+      <c r="A20" s="6"/>
+      <c r="B20" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="8" t="s">
-        <v>21</v>
+      <c r="A21" s="12"/>
+      <c r="B21" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="10" t="s">
-        <v>22</v>
+      <c r="A22" s="6"/>
+      <c r="B22" s="13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="11" t="s">
-        <v>23</v>
+      <c r="A23" s="6"/>
+      <c r="B23" s="14" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="11" t="s">
-        <v>24</v>
+      <c r="A24" s="6"/>
+      <c r="B24" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="11" t="s">
-        <v>25</v>
+      <c r="A25" s="6"/>
+      <c r="B25" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="11" t="s">
-        <v>26</v>
+      <c r="A26" s="6"/>
+      <c r="B26" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="11" t="s">
-        <v>27</v>
+      <c r="A27" s="6"/>
+      <c r="B27" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="12" t="s">
-        <v>28</v>
+      <c r="A28" s="6"/>
+      <c r="B28" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="13" t="s">
-        <v>29</v>
+      <c r="A29" s="6"/>
+      <c r="B29" s="16" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="14" t="s">
-        <v>30</v>
+      <c r="A30" s="12"/>
+      <c r="B30" s="17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="14" t="s">
-        <v>31</v>
+      <c r="A31" s="18"/>
+      <c r="B31" s="17" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="16" t="s">
-        <v>32</v>
+      <c r="A32" s="6"/>
+      <c r="B32" s="19" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="14" t="s">
-        <v>33</v>
+      <c r="A33" s="6"/>
+      <c r="B33" s="17" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="17" t="s">
-        <v>34</v>
+      <c r="A34" s="6"/>
+      <c r="B34" s="20" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="17" t="s">
-        <v>35</v>
+      <c r="A35" s="6"/>
+      <c r="B35" s="20" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="14" t="s">
-        <v>36</v>
+      <c r="A36" s="6"/>
+      <c r="B36" s="17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="14" t="s">
-        <v>37</v>
+      <c r="A37" s="6"/>
+      <c r="B37" s="17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="18" t="s">
-        <v>38</v>
+      <c r="A38" s="6"/>
+      <c r="B38" s="21" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="19" t="s">
-        <v>39</v>
+      <c r="A39" s="12"/>
+      <c r="B39" s="22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="5" t="s">
-        <v>40</v>
+      <c r="A40" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5" t="s">
-        <v>41</v>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="6"/>
-      <c r="B42" s="5" t="s">
-        <v>42</v>
+      <c r="A42" s="7"/>
+      <c r="B42" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5" t="s">
-        <v>43</v>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="6"/>
-      <c r="B44" s="5" t="s">
-        <v>44</v>
+      <c r="A44" s="7"/>
+      <c r="B44" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="6"/>
-      <c r="B45" s="5" t="s">
-        <v>45</v>
+      <c r="A45" s="7"/>
+      <c r="B45" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="6"/>
-      <c r="B46" s="5" t="s">
-        <v>46</v>
+      <c r="A46" s="7"/>
+      <c r="B46" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="20"/>
-      <c r="B47" s="5" t="s">
-        <v>47</v>
+      <c r="A47" s="23"/>
+      <c r="B47" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="6"/>
-      <c r="B48" s="5" t="s">
-        <v>48</v>
+      <c r="A48" s="7"/>
+      <c r="B48" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="5" t="s">
-        <v>49</v>
+      <c r="A49" s="24"/>
+      <c r="B49" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="6"/>
-      <c r="B50" s="5" t="s">
-        <v>50</v>
+      <c r="A50" s="7"/>
+      <c r="B50" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="6"/>
-      <c r="B51" s="5" t="s">
-        <v>51</v>
+      <c r="A51" s="7"/>
+      <c r="B51" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="6"/>
-      <c r="B52" s="5" t="s">
-        <v>52</v>
+      <c r="A52" s="7"/>
+      <c r="B52" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="6"/>
-      <c r="B53" s="11" t="s">
-        <v>53</v>
+      <c r="A53" s="7"/>
+      <c r="B53" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="6"/>
-      <c r="B54" s="11" t="s">
-        <v>54</v>
+      <c r="A54" s="7"/>
+      <c r="B54" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="6"/>
-      <c r="B55" s="11" t="s">
-        <v>55</v>
+      <c r="A55" s="7"/>
+      <c r="B55" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="6"/>
-      <c r="B56" s="11" t="s">
-        <v>56</v>
+      <c r="A56" s="7"/>
+      <c r="B56" s="14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="6"/>
-      <c r="B57" s="11" t="s">
-        <v>57</v>
+      <c r="A57" s="7"/>
+      <c r="B57" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="6"/>
-      <c r="B58" s="11" t="s">
-        <v>58</v>
+      <c r="A58" s="7"/>
+      <c r="B58" s="14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="5"/>
-      <c r="B59" s="11" t="s">
-        <v>59</v>
+      <c r="A59" s="6"/>
+      <c r="B59" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="22"/>
-      <c r="B60" s="11" t="s">
-        <v>60</v>
+      <c r="A60" s="25"/>
+      <c r="B60" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="6"/>
-      <c r="B61" s="11" t="s">
-        <v>61</v>
+      <c r="A61" s="7"/>
+      <c r="B61" s="14" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="6"/>
-      <c r="B62" s="11" t="s">
-        <v>62</v>
+      <c r="A62" s="7"/>
+      <c r="B62" s="14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="6"/>
-      <c r="B63" s="11" t="s">
-        <v>63</v>
+      <c r="A63" s="7"/>
+      <c r="B63" s="14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="6"/>
-      <c r="B64" s="11" t="s">
-        <v>64</v>
+      <c r="A64" s="7"/>
+      <c r="B64" s="14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="5"/>
-      <c r="B65" s="11" t="s">
-        <v>65</v>
+      <c r="A65" s="6"/>
+      <c r="B65" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="5"/>
-      <c r="B66" s="11" t="s">
-        <v>66</v>
+      <c r="A66" s="6"/>
+      <c r="B66" s="14" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="15"/>
-      <c r="B67" s="23" t="s">
-        <v>67</v>
+      <c r="A67" s="18"/>
+      <c r="B67" s="26" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="6"/>
-      <c r="B68" s="24" t="s">
-        <v>68</v>
+      <c r="A68" s="7"/>
+      <c r="B68" s="27" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="6"/>
-      <c r="B69" s="24" t="s">
-        <v>69</v>
+      <c r="A69" s="7"/>
+      <c r="B69" s="27" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="22"/>
-      <c r="B70" s="24" t="s">
-        <v>70</v>
+      <c r="A70" s="25"/>
+      <c r="B70" s="27" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="6"/>
-      <c r="B71" s="24" t="s">
-        <v>71</v>
+      <c r="A71" s="7"/>
+      <c r="B71" s="27" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="5"/>
-      <c r="B72" s="24" t="s">
-        <v>72</v>
+      <c r="A72" s="6"/>
+      <c r="B72" s="27" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="5"/>
-      <c r="B73" s="24" t="s">
-        <v>73</v>
+      <c r="A73" s="6"/>
+      <c r="B73" s="27" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="5"/>
-      <c r="B74" s="24" t="s">
-        <v>74</v>
+      <c r="A74" s="6"/>
+      <c r="B74" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="5"/>
-      <c r="B75" s="14" t="s">
-        <v>75</v>
+      <c r="A75" s="6"/>
+      <c r="B75" s="17" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="6"/>
-      <c r="B76" s="14" t="s">
-        <v>76</v>
+      <c r="A76" s="7"/>
+      <c r="B76" s="17" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="6"/>
-      <c r="B77" s="25" t="s">
-        <v>77</v>
+      <c r="A77" s="7"/>
+      <c r="B77" s="28" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="6"/>
-      <c r="B78" s="24" t="s">
-        <v>78</v>
+      <c r="A78" s="7"/>
+      <c r="B78" s="27" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="6"/>
+      <c r="A79" s="7"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>80</v>
+      <c r="A80" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="6"/>
-      <c r="B81" s="14" t="s">
-        <v>81</v>
+      <c r="A81" s="7"/>
+      <c r="B81" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="26"/>
-      <c r="B82" s="14" t="s">
-        <v>82</v>
+      <c r="A82" s="29"/>
+      <c r="B82" s="17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="26"/>
-      <c r="B83" s="14" t="s">
-        <v>83</v>
+      <c r="A83" s="29"/>
+      <c r="B83" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="26"/>
-      <c r="B84" s="14" t="s">
-        <v>84</v>
+      <c r="A84" s="29"/>
+      <c r="B84" s="17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="27"/>
-      <c r="B85" s="14" t="s">
-        <v>85</v>
+      <c r="A85" s="30"/>
+      <c r="B85" s="17" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="27"/>
-      <c r="B86" s="14" t="s">
-        <v>86</v>
+      <c r="A86" s="30"/>
+      <c r="B86" s="17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="26"/>
-      <c r="B87" s="14" t="s">
-        <v>87</v>
+      <c r="A87" s="29"/>
+      <c r="B87" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="26"/>
-      <c r="B88" s="14" t="s">
-        <v>88</v>
+      <c r="A88" s="29"/>
+      <c r="B88" s="17" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="26"/>
-      <c r="B89" s="14" t="s">
-        <v>89</v>
+      <c r="A89" s="29"/>
+      <c r="B89" s="17" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="21"/>
-      <c r="B90" s="14" t="s">
-        <v>90</v>
+      <c r="A90" s="24"/>
+      <c r="B90" s="17" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="5"/>
-      <c r="B91" s="14" t="s">
-        <v>91</v>
+      <c r="A91" s="6"/>
+      <c r="B91" s="17" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="5"/>
-      <c r="B92" s="14" t="s">
-        <v>92</v>
+      <c r="A92" s="6"/>
+      <c r="B92" s="17" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="5"/>
-      <c r="B93" s="14" t="s">
-        <v>93</v>
+      <c r="A93" s="6"/>
+      <c r="B93" s="17" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="5"/>
-      <c r="B94" s="14" t="s">
-        <v>94</v>
+      <c r="A94" s="6"/>
+      <c r="B94" s="17" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="5"/>
-      <c r="B95" s="14" t="s">
-        <v>95</v>
+      <c r="A95" s="6"/>
+      <c r="B95" s="17" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="28"/>
-      <c r="B96" s="14" t="s">
-        <v>96</v>
+      <c r="A96" s="31"/>
+      <c r="B96" s="17" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="29"/>
-      <c r="B97" s="30" t="s">
-        <v>97</v>
+      <c r="A97" s="32"/>
+      <c r="B97" s="33" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="5"/>
-      <c r="B98" s="14" t="s">
-        <v>98</v>
+      <c r="A98" s="6"/>
+      <c r="B98" s="17" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="5"/>
-      <c r="B99" s="14" t="s">
-        <v>99</v>
+      <c r="A99" s="6"/>
+      <c r="B99" s="17" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="31"/>
-      <c r="B100" s="14" t="s">
-        <v>100</v>
+      <c r="A100" s="34"/>
+      <c r="B100" s="17" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="5"/>
-      <c r="B101" s="14" t="s">
-        <v>101</v>
+      <c r="A101" s="6"/>
+      <c r="B101" s="17" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="32"/>
-      <c r="B102" s="14" t="s">
-        <v>102</v>
+      <c r="A102" s="35"/>
+      <c r="B102" s="17" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="32"/>
-      <c r="B103" s="11" t="s">
-        <v>103</v>
+      <c r="A103" s="35"/>
+      <c r="B103" s="14" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="5"/>
-      <c r="B104" s="11" t="s">
-        <v>104</v>
+      <c r="A104" s="6"/>
+      <c r="B104" s="14" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="5"/>
-      <c r="B105" s="11" t="s">
-        <v>105</v>
+      <c r="A105" s="6"/>
+      <c r="B105" s="14" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="15"/>
-      <c r="B106" s="33" t="s">
-        <v>106</v>
+      <c r="A106" s="18"/>
+      <c r="B106" s="36" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="22"/>
-      <c r="B107" s="34" t="s">
-        <v>107</v>
+      <c r="A107" s="25"/>
+      <c r="B107" s="37" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="5"/>
-      <c r="B108" s="11" t="s">
-        <v>108</v>
+      <c r="A108" s="6"/>
+      <c r="B108" s="14" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="5"/>
-      <c r="B109" s="11" t="s">
-        <v>109</v>
+      <c r="A109" s="6"/>
+      <c r="B109" s="14" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="5"/>
-      <c r="B110" s="11" t="s">
-        <v>110</v>
+      <c r="A110" s="6"/>
+      <c r="B110" s="14" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="5"/>
-      <c r="B111" s="11" t="s">
-        <v>111</v>
+      <c r="A111" s="6"/>
+      <c r="B111" s="14" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="5"/>
-      <c r="B112" s="11" t="s">
-        <v>112</v>
+      <c r="A112" s="6"/>
+      <c r="B112" s="14" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="5"/>
-      <c r="B113" s="11" t="s">
-        <v>113</v>
+      <c r="A113" s="6"/>
+      <c r="B113" s="14" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="5"/>
-      <c r="B114" s="11" t="s">
-        <v>114</v>
+      <c r="A114" s="6"/>
+      <c r="B114" s="14" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="5"/>
-      <c r="B115" s="33" t="s">
-        <v>115</v>
+      <c r="A115" s="6"/>
+      <c r="B115" s="36" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="5"/>
-      <c r="B116" s="11" t="s">
-        <v>116</v>
+      <c r="A116" s="6"/>
+      <c r="B116" s="14" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="5"/>
-      <c r="B117" s="11" t="s">
-        <v>117</v>
+      <c r="A117" s="6"/>
+      <c r="B117" s="14" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="5"/>
-      <c r="B118" s="35" t="s">
-        <v>118</v>
+      <c r="A118" s="6"/>
+      <c r="B118" s="38" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="5"/>
-      <c r="B119" s="11" t="s">
-        <v>119</v>
+      <c r="A119" s="6"/>
+      <c r="B119" s="14" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="5"/>
-      <c r="B120" s="35" t="s">
-        <v>120</v>
+      <c r="A120" s="6"/>
+      <c r="B120" s="38" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="5"/>
-      <c r="B121" s="35" t="s">
-        <v>121</v>
+      <c r="A121" s="6"/>
+      <c r="B121" s="38" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="5"/>
-      <c r="B122" s="35" t="s">
-        <v>122</v>
+      <c r="A122" s="6"/>
+      <c r="B122" s="38" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="5"/>
-      <c r="B123" s="36" t="s">
-        <v>123</v>
+      <c r="A123" s="6"/>
+      <c r="B123" s="39" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="5"/>
-      <c r="B124" s="35" t="s">
-        <v>124</v>
+      <c r="A124" s="6"/>
+      <c r="B124" s="38" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="5"/>
-      <c r="B125" s="10" t="s">
-        <v>125</v>
+      <c r="A125" s="6"/>
+      <c r="B125" s="13" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="5"/>
-      <c r="B126" s="35" t="s">
-        <v>126</v>
+      <c r="A126" s="6"/>
+      <c r="B126" s="38" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="5"/>
-      <c r="B127" s="37" t="s">
-        <v>127</v>
+      <c r="A127" s="6"/>
+      <c r="B127" s="40" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="5"/>
-      <c r="B128" s="37" t="s">
-        <v>128</v>
+      <c r="A128" s="6"/>
+      <c r="B128" s="40" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="5"/>
-      <c r="B129" s="37" t="s">
-        <v>129</v>
+      <c r="A129" s="6"/>
+      <c r="B129" s="40" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="5"/>
-      <c r="B130" s="37" t="s">
-        <v>130</v>
+      <c r="A130" s="6"/>
+      <c r="B130" s="40" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="5"/>
-      <c r="B131" s="37" t="s">
-        <v>131</v>
+      <c r="A131" s="6"/>
+      <c r="B131" s="40" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="5"/>
-      <c r="B132" s="37" t="s">
-        <v>132</v>
+      <c r="A132" s="6"/>
+      <c r="B132" s="40" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="5"/>
-      <c r="B133" s="37" t="s">
-        <v>133</v>
+      <c r="A133" s="6"/>
+      <c r="B133" s="40" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="21"/>
-      <c r="B134" s="37" t="s">
-        <v>134</v>
+      <c r="A134" s="24"/>
+      <c r="B134" s="40" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="6"/>
-      <c r="B135" s="38" t="s">
-        <v>135</v>
+      <c r="A135" s="7"/>
+      <c r="B135" s="41" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="6"/>
-      <c r="B136" s="22" t="s">
-        <v>136</v>
+      <c r="A136" s="7"/>
+      <c r="B136" s="25" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="6"/>
-      <c r="B137" s="6" t="s">
-        <v>137</v>
+      <c r="A137" s="7"/>
+      <c r="B137" s="7" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="6"/>
-      <c r="B138" s="6" t="s">
-        <v>138</v>
+      <c r="A138" s="7"/>
+      <c r="B138" s="7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="6"/>
-      <c r="B139" s="6" t="s">
-        <v>139</v>
+      <c r="A139" s="7"/>
+      <c r="B139" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="6"/>
-      <c r="B140" s="6" t="s">
-        <v>140</v>
+      <c r="A140" s="7"/>
+      <c r="B140" s="7" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="6"/>
-      <c r="B141" s="5" t="s">
-        <v>141</v>
+      <c r="A141" s="7"/>
+      <c r="B141" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5" t="s">
-        <v>142</v>
+      <c r="A142" s="6"/>
+      <c r="B142" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="5"/>
-      <c r="B143" s="15" t="s">
-        <v>143</v>
+      <c r="A143" s="6"/>
+      <c r="B143" s="18" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="20"/>
-      <c r="B144" s="6" t="s">
-        <v>144</v>
+      <c r="A144" s="23"/>
+      <c r="B144" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="6"/>
-      <c r="B145" s="6" t="s">
-        <v>145</v>
+      <c r="A145" s="7"/>
+      <c r="B145" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="5"/>
-      <c r="B146" s="22" t="s">
-        <v>146</v>
+      <c r="A146" s="6"/>
+      <c r="B146" s="25" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="5"/>
-      <c r="B147" s="6" t="s">
-        <v>147</v>
+      <c r="A147" s="6"/>
+      <c r="B147" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="5"/>
+      <c r="A148" s="6"/>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>149</v>
+      <c r="A149" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="6"/>
-      <c r="B150" s="5" t="s">
-        <v>150</v>
+      <c r="A150" s="7"/>
+      <c r="B150" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="6"/>
-      <c r="B151" s="5" t="s">
-        <v>151</v>
+      <c r="A151" s="7"/>
+      <c r="B151" s="6" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="6"/>
-      <c r="B152" s="21" t="s">
-        <v>152</v>
+      <c r="A152" s="7"/>
+      <c r="B152" s="24" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="5"/>
-      <c r="B153" s="6" t="s">
-        <v>153</v>
+      <c r="A153" s="6"/>
+      <c r="B153" s="7" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="5"/>
-      <c r="B154" s="6" t="s">
-        <v>154</v>
+      <c r="A154" s="6"/>
+      <c r="B154" s="7" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="5"/>
-      <c r="B155" s="6" t="s">
-        <v>155</v>
+      <c r="A155" s="6"/>
+      <c r="B155" s="7" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="5"/>
-      <c r="B156" s="5" t="s">
-        <v>156</v>
+      <c r="A156" s="6"/>
+      <c r="B156" s="6" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="6"/>
-      <c r="B157" s="5" t="s">
-        <v>157</v>
+      <c r="A157" s="7"/>
+      <c r="B157" s="6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="6"/>
-      <c r="B158" s="11" t="s">
-        <v>158</v>
+      <c r="A158" s="7"/>
+      <c r="B158" s="14" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="6"/>
-      <c r="B159" s="11" t="s">
-        <v>159</v>
+      <c r="A159" s="7"/>
+      <c r="B159" s="14" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="5"/>
-      <c r="B160" s="35" t="s">
-        <v>160</v>
+      <c r="A160" s="6"/>
+      <c r="B160" s="38" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="22"/>
-      <c r="B161" s="35" t="s">
-        <v>161</v>
+      <c r="A161" s="25"/>
+      <c r="B161" s="38" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="5"/>
-      <c r="B162" s="35" t="s">
-        <v>162</v>
+      <c r="A162" s="6"/>
+      <c r="B162" s="38" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="5"/>
-      <c r="B163" s="11" t="s">
-        <v>163</v>
+      <c r="A163" s="6"/>
+      <c r="B163" s="14" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="5"/>
-      <c r="B164" s="39" t="s">
-        <v>164</v>
+      <c r="A164" s="6"/>
+      <c r="B164" s="42" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="5"/>
-      <c r="B165" s="40"/>
+      <c r="A165" s="6"/>
+      <c r="B165" s="43"/>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B166" s="11" t="s">
-        <v>166</v>
+      <c r="A166" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166" s="14" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="5"/>
-      <c r="B167" s="11" t="s">
-        <v>167</v>
+      <c r="A167" s="6"/>
+      <c r="B167" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="5"/>
-      <c r="B168" s="41" t="s">
-        <v>168</v>
+      <c r="A168" s="6"/>
+      <c r="B168" s="17" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="5"/>
-      <c r="B169" s="41" t="s">
-        <v>169</v>
+      <c r="A169" s="6"/>
+      <c r="B169" s="17" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="5"/>
-      <c r="B170" s="41" t="s">
-        <v>170</v>
+      <c r="A170" s="6"/>
+      <c r="B170" s="17" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="5"/>
-      <c r="B171" s="41" t="s">
-        <v>171</v>
+      <c r="A171" s="6"/>
+      <c r="B171" s="17" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="172" spans="2:2">
-      <c r="B172" s="41" t="s">
-        <v>172</v>
+      <c r="B172" s="17" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="173" spans="2:2">
-      <c r="B173" s="41" t="s">
-        <v>173</v>
+      <c r="B173" s="17" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="174" spans="2:2">
-      <c r="B174" s="41" t="s">
-        <v>174</v>
+      <c r="B174" s="17" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="175" spans="2:2">
-      <c r="B175" s="41" t="s">
-        <v>175</v>
+      <c r="B175" s="17" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/file/平台新标抓取计划时间表.xlsx
+++ b/file/平台新标抓取计划时间表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="8385"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -897,7 +897,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359">
   <si>
     <r>
       <rPr>
@@ -978,526 +978,1069 @@
     <t>生菜金融</t>
   </si>
   <si>
+    <t>P00501</t>
+  </si>
+  <si>
     <t>众信金融</t>
   </si>
   <si>
+    <t>P00502</t>
+  </si>
+  <si>
     <t>德众金融</t>
   </si>
   <si>
+    <t>P00503</t>
+  </si>
+  <si>
     <t>豫商贷</t>
   </si>
   <si>
+    <t>P00504</t>
+  </si>
+  <si>
     <t>金票通</t>
   </si>
   <si>
+    <t>P00505</t>
+  </si>
+  <si>
     <t>乾贷网</t>
   </si>
   <si>
+    <t>P00506</t>
+  </si>
+  <si>
     <t>首E家</t>
   </si>
   <si>
+    <t>P00507</t>
+  </si>
+  <si>
     <t>人文贷</t>
   </si>
   <si>
+    <t>P00508</t>
+  </si>
+  <si>
     <t>联金所</t>
   </si>
   <si>
+    <t>P00509</t>
+  </si>
+  <si>
     <t>e路同心</t>
   </si>
   <si>
+    <t>P00510</t>
+  </si>
+  <si>
     <t>兴泰财富</t>
   </si>
   <si>
+    <t>P00511</t>
+  </si>
+  <si>
     <t>梦想盈行</t>
   </si>
   <si>
+    <t>P00512</t>
+  </si>
+  <si>
     <t>汉金所</t>
   </si>
   <si>
     <t>(暂定)</t>
   </si>
   <si>
+    <t>P00513</t>
+  </si>
+  <si>
     <t>楚天财富网</t>
+  </si>
+  <si>
+    <t>P00514</t>
   </si>
   <si>
     <t xml:space="preserve">融和贷
 </t>
   </si>
   <si>
-    <t>(js)</t>
+    <t>(分页后url不变)</t>
+  </si>
+  <si>
+    <t>P00515</t>
   </si>
   <si>
     <t xml:space="preserve">汇付四海
 </t>
   </si>
   <si>
+    <t>(不能确定产品类型的url跳转规则)</t>
+  </si>
+  <si>
+    <t>P00516</t>
+  </si>
+  <si>
     <t xml:space="preserve">民贷天下
 </t>
   </si>
   <si>
+    <t>(page值被变量取代)</t>
+  </si>
+  <si>
+    <t>P00517</t>
+  </si>
+  <si>
     <t>可溯贷</t>
   </si>
   <si>
+    <t>(已完成)</t>
+  </si>
+  <si>
+    <t>P00518</t>
+  </si>
+  <si>
     <t>简单理财</t>
   </si>
   <si>
+    <t>P00519</t>
+  </si>
+  <si>
     <t>海金所</t>
   </si>
   <si>
+    <t>P00520</t>
+  </si>
+  <si>
     <t>博金贷</t>
   </si>
   <si>
+    <t>(分页url没有找到规律</t>
+  </si>
+  <si>
+    <t>P00521</t>
+  </si>
+  <si>
     <t>安心金融</t>
   </si>
   <si>
+    <t>(已完成,只需确定getUrls()的关键字)</t>
+  </si>
+  <si>
+    <t>P00522</t>
+  </si>
+  <si>
     <t>建安金融</t>
   </si>
   <si>
+    <t>P00523</t>
+  </si>
+  <si>
     <t>城城理财</t>
   </si>
   <si>
+    <t>(只能找剩余金额是否为0来确定当前是否是新标)</t>
+  </si>
+  <si>
+    <t>P00524</t>
+  </si>
+  <si>
     <t>融通资产</t>
   </si>
   <si>
+    <t>P00525</t>
+  </si>
+  <si>
     <t>冀金宝</t>
   </si>
   <si>
+    <t>P00526</t>
+  </si>
+  <si>
     <t>中投融</t>
   </si>
   <si>
+    <t>P00527</t>
+  </si>
+  <si>
     <t>365易贷</t>
   </si>
   <si>
+    <t>P00528</t>
+  </si>
+  <si>
     <t>东方汇</t>
   </si>
   <si>
+    <t>P00529</t>
+  </si>
+  <si>
     <t>金控网贷</t>
   </si>
   <si>
+    <t>P00530</t>
+  </si>
+  <si>
     <t>金开贷</t>
   </si>
   <si>
+    <t>P00531</t>
+  </si>
+  <si>
     <t>贷贷兴隆</t>
   </si>
   <si>
+    <t>P00532</t>
+  </si>
+  <si>
     <t>楚金所</t>
   </si>
   <si>
+    <t>P00533</t>
+  </si>
+  <si>
     <t>文创汇</t>
   </si>
   <si>
+    <t>P00534</t>
+  </si>
+  <si>
     <t>橙旗贷</t>
   </si>
   <si>
+    <t>P00535</t>
+  </si>
+  <si>
     <t>瑞钱宝</t>
   </si>
   <si>
+    <t>P00536</t>
+  </si>
+  <si>
     <t>上市公司</t>
   </si>
   <si>
+    <t>P00537</t>
+  </si>
+  <si>
     <t>翼龙贷</t>
   </si>
   <si>
+    <t>P00538</t>
+  </si>
+  <si>
     <t>投哪网</t>
   </si>
   <si>
+    <t>P00539</t>
+  </si>
+  <si>
     <t>前海理想金融</t>
   </si>
   <si>
+    <t>P00540</t>
+  </si>
+  <si>
     <t>搜易贷</t>
   </si>
   <si>
+    <t>P00541</t>
+  </si>
+  <si>
     <t>鹏金所</t>
   </si>
   <si>
+    <t>P00542</t>
+  </si>
+  <si>
     <t>证大E贷</t>
   </si>
   <si>
+    <t>P00543</t>
+  </si>
+  <si>
     <t>友金所</t>
   </si>
   <si>
+    <t>P00544</t>
+  </si>
+  <si>
     <t>腾邦创投</t>
   </si>
   <si>
+    <t>P00545</t>
+  </si>
+  <si>
     <t>金融工场</t>
   </si>
   <si>
+    <t>P00546</t>
+  </si>
+  <si>
     <t>中瑞财富</t>
   </si>
   <si>
+    <t>P00547</t>
+  </si>
+  <si>
     <t>招商贷</t>
   </si>
   <si>
+    <t>P00548</t>
+  </si>
+  <si>
     <t>珠宝贷</t>
   </si>
   <si>
+    <t>P00549</t>
+  </si>
+  <si>
     <t>和信贷</t>
   </si>
   <si>
+    <t>(已完成,但数据么有分平台)</t>
+  </si>
+  <si>
+    <t>P00550</t>
+  </si>
+  <si>
     <t>黄河金融</t>
   </si>
   <si>
+    <t>P00551</t>
+  </si>
+  <si>
     <t>海投汇</t>
   </si>
   <si>
+    <t>(list链接页数不变)</t>
+  </si>
+  <si>
+    <t>P00552</t>
+  </si>
+  <si>
     <t>邦帮堂</t>
   </si>
   <si>
+    <t>P00553</t>
+  </si>
+  <si>
     <t>抱财网</t>
   </si>
   <si>
+    <t>(页数么有规律)</t>
+  </si>
+  <si>
+    <t>P00554</t>
+  </si>
+  <si>
     <t>华人金融</t>
   </si>
   <si>
+    <t>P00555</t>
+  </si>
+  <si>
     <t>海吉星</t>
   </si>
   <si>
+    <t>P00556</t>
+  </si>
+  <si>
     <t>格林易贷</t>
   </si>
   <si>
+    <t>P00557</t>
+  </si>
+  <si>
     <t>壹佰金融</t>
   </si>
   <si>
+    <t>P00558</t>
+  </si>
+  <si>
     <t>种钱网</t>
   </si>
   <si>
+    <t>P00559</t>
+  </si>
+  <si>
     <t>神州通宝</t>
   </si>
   <si>
+    <t>P00560</t>
+  </si>
+  <si>
     <t>金融一号店</t>
   </si>
   <si>
+    <t>P00561</t>
+  </si>
+  <si>
     <t>财加</t>
   </si>
   <si>
+    <t>P00562</t>
+  </si>
+  <si>
     <t>好又贷</t>
   </si>
   <si>
+    <t>P00563</t>
+  </si>
+  <si>
     <t>铜掌柜</t>
   </si>
   <si>
+    <t>P00564</t>
+  </si>
+  <si>
     <t>金蛋理财</t>
   </si>
   <si>
+    <t>P00565</t>
+  </si>
+  <si>
     <t>hellomoney</t>
   </si>
   <si>
+    <t>P00566</t>
+  </si>
+  <si>
     <t>新博贷</t>
   </si>
   <si>
+    <t>P00567</t>
+  </si>
+  <si>
     <t>温州贷</t>
   </si>
   <si>
+    <t>P00568</t>
+  </si>
+  <si>
     <t>东方金钰</t>
   </si>
   <si>
+    <t>P00569</t>
+  </si>
+  <si>
     <t>农泰金融</t>
   </si>
   <si>
+    <t>P00570</t>
+  </si>
+  <si>
     <t>付融宝</t>
   </si>
   <si>
+    <t>P00571</t>
+  </si>
+  <si>
     <t>绿能宝</t>
   </si>
   <si>
+    <t>P00572</t>
+  </si>
+  <si>
     <t>温商贷</t>
   </si>
   <si>
+    <t>P00573</t>
+  </si>
+  <si>
     <t>简理财</t>
   </si>
   <si>
+    <t>P00574</t>
+  </si>
+  <si>
     <t>农发贷</t>
   </si>
   <si>
+    <t>P00575</t>
+  </si>
+  <si>
+    <t>P00576</t>
+  </si>
+  <si>
     <t>风投系</t>
   </si>
   <si>
     <t>人人贷</t>
   </si>
   <si>
+    <t>P00577</t>
+  </si>
+  <si>
     <t>拍拍贷</t>
   </si>
   <si>
+    <t>P00578</t>
+  </si>
+  <si>
     <t>玖富</t>
   </si>
   <si>
+    <t>P00579</t>
+  </si>
+  <si>
     <t>有利网</t>
   </si>
   <si>
+    <t>P00580</t>
+  </si>
+  <si>
     <t>信而富</t>
   </si>
   <si>
+    <t>P00581</t>
+  </si>
+  <si>
     <t>易贷网</t>
   </si>
   <si>
+    <t>P00582</t>
+  </si>
+  <si>
     <t>微贷网</t>
   </si>
   <si>
+    <t>P00583</t>
+  </si>
+  <si>
     <t>诺诺镑客</t>
   </si>
   <si>
+    <t>P00584</t>
+  </si>
+  <si>
     <t>91旺财</t>
   </si>
   <si>
+    <t>P00585</t>
+  </si>
+  <si>
     <t>人人聚财</t>
   </si>
   <si>
+    <t>P00586</t>
+  </si>
+  <si>
     <t>盈盈理财</t>
   </si>
   <si>
+    <t>P00587</t>
+  </si>
+  <si>
     <t>理财范</t>
   </si>
   <si>
+    <t>P00588</t>
+  </si>
+  <si>
     <t>银票网</t>
   </si>
   <si>
+    <t>P00589</t>
+  </si>
+  <si>
     <t>团贷网</t>
   </si>
   <si>
+    <t>P00590</t>
+  </si>
+  <si>
     <t>爱钱进</t>
   </si>
   <si>
+    <t>P00591</t>
+  </si>
+  <si>
     <t>花果金融</t>
   </si>
   <si>
+    <t>P00592</t>
+  </si>
+  <si>
     <t>永利宝</t>
   </si>
   <si>
+    <t>P00593</t>
+  </si>
+  <si>
     <t>壹心贷</t>
   </si>
   <si>
+    <t>P00594</t>
+  </si>
+  <si>
     <t>口贷网</t>
   </si>
   <si>
+    <t>P00595</t>
+  </si>
+  <si>
     <t>钱多多</t>
   </si>
   <si>
+    <t>P00596</t>
+  </si>
+  <si>
     <t>银豆网</t>
   </si>
   <si>
+    <t>P00597</t>
+  </si>
+  <si>
     <t>爱钱帮</t>
   </si>
   <si>
+    <t>P00598</t>
+  </si>
+  <si>
     <t>网利宝</t>
   </si>
   <si>
+    <t>P00599</t>
+  </si>
+  <si>
     <t>懒投资</t>
   </si>
   <si>
+    <t>P00600</t>
+  </si>
+  <si>
     <t>短融网</t>
   </si>
   <si>
+    <t>P00601</t>
+  </si>
+  <si>
     <t>合力贷</t>
   </si>
   <si>
+    <t>P00602</t>
+  </si>
+  <si>
     <t>爱财有道</t>
   </si>
   <si>
+    <t>P00603</t>
+  </si>
+  <si>
     <t>招财网</t>
   </si>
   <si>
+    <t>P00604</t>
+  </si>
+  <si>
     <t>网信理财</t>
   </si>
   <si>
+    <t>P00605</t>
+  </si>
+  <si>
     <t>雪山贷</t>
   </si>
   <si>
+    <t>P00606</t>
+  </si>
+  <si>
     <t>迷你贷</t>
   </si>
   <si>
+    <t>P00607</t>
+  </si>
+  <si>
     <t>梧桐理财</t>
   </si>
   <si>
+    <t>P00608</t>
+  </si>
+  <si>
     <t>安心de利</t>
   </si>
   <si>
+    <t>P00609</t>
+  </si>
+  <si>
     <t>桔子理财</t>
   </si>
   <si>
+    <t>P00610</t>
+  </si>
+  <si>
     <t>91快车</t>
   </si>
   <si>
+    <t>P00611</t>
+  </si>
+  <si>
     <t>拾财贷</t>
   </si>
   <si>
+    <t>P00612</t>
+  </si>
+  <si>
     <t>e微贷</t>
   </si>
   <si>
+    <t>P00613</t>
+  </si>
+  <si>
     <t>钱升钱</t>
   </si>
   <si>
+    <t>P00614</t>
+  </si>
+  <si>
     <t>草根投资</t>
   </si>
   <si>
+    <t>P00615</t>
+  </si>
+  <si>
     <t>全球贷</t>
   </si>
   <si>
+    <t>P00616</t>
+  </si>
+  <si>
     <t>惠人贷</t>
   </si>
   <si>
+    <t>P00617</t>
+  </si>
+  <si>
     <t>宝点网</t>
   </si>
   <si>
+    <t>P00618</t>
+  </si>
+  <si>
     <t>百财车贷</t>
   </si>
   <si>
+    <t>P00619</t>
+  </si>
+  <si>
     <t>中金贷</t>
   </si>
   <si>
+    <t>P00620</t>
+  </si>
+  <si>
     <t>票据宝</t>
   </si>
   <si>
+    <t>P00621</t>
+  </si>
+  <si>
     <t>融贝网</t>
   </si>
   <si>
+    <t>P00622</t>
+  </si>
+  <si>
     <t>电网贷</t>
   </si>
   <si>
+    <t>P00623</t>
+  </si>
+  <si>
     <t>美利金融</t>
   </si>
   <si>
+    <t>P00624</t>
+  </si>
+  <si>
     <t>洋钱罐</t>
   </si>
   <si>
+    <t>P00625</t>
+  </si>
+  <si>
     <t>大麦理财</t>
   </si>
   <si>
+    <t>P00626</t>
+  </si>
+  <si>
     <t>广信贷</t>
   </si>
   <si>
+    <t>P00627</t>
+  </si>
+  <si>
     <t>爱定投</t>
   </si>
   <si>
+    <t>P00628</t>
+  </si>
+  <si>
     <t>公明贷</t>
   </si>
   <si>
+    <t>P00629</t>
+  </si>
+  <si>
     <t>创客金融</t>
   </si>
   <si>
+    <t>P00630</t>
+  </si>
+  <si>
     <t>全民财富</t>
   </si>
   <si>
+    <t>P00631</t>
+  </si>
+  <si>
     <t>共赢社</t>
   </si>
   <si>
+    <t>P00632</t>
+  </si>
+  <si>
     <t>车能贷</t>
   </si>
   <si>
+    <t>P00633</t>
+  </si>
+  <si>
     <t>添米</t>
   </si>
   <si>
+    <t>P00634</t>
+  </si>
+  <si>
     <t>开财宝</t>
   </si>
   <si>
+    <t>P00635</t>
+  </si>
+  <si>
     <t>贝米钱包</t>
   </si>
   <si>
+    <t>P00636</t>
+  </si>
+  <si>
     <t>丰投网</t>
   </si>
   <si>
+    <t>P00637</t>
+  </si>
+  <si>
     <t>产融网</t>
   </si>
   <si>
+    <t>P00638</t>
+  </si>
+  <si>
     <t>京金联</t>
   </si>
   <si>
+    <t>P00639</t>
+  </si>
+  <si>
     <t>银库</t>
   </si>
   <si>
+    <t>P00640</t>
+  </si>
+  <si>
     <t>乐投天下</t>
   </si>
   <si>
+    <t>P00641</t>
+  </si>
+  <si>
     <t>e牧宝</t>
   </si>
   <si>
+    <t>P00642</t>
+  </si>
+  <si>
     <t>专投网</t>
   </si>
   <si>
+    <t>P00643</t>
+  </si>
+  <si>
     <t>米缸金融</t>
   </si>
   <si>
+    <t>P00644</t>
+  </si>
+  <si>
+    <t>P00645</t>
+  </si>
+  <si>
     <t>创业系</t>
   </si>
   <si>
     <t>小牛在线</t>
   </si>
   <si>
+    <t>P00646</t>
+  </si>
+  <si>
     <t>钱程在线</t>
   </si>
   <si>
+    <t>P00647</t>
+  </si>
+  <si>
     <t>有人贷</t>
   </si>
   <si>
+    <t>P00648</t>
+  </si>
+  <si>
     <t>果树财富</t>
   </si>
   <si>
+    <t>P00649</t>
+  </si>
+  <si>
     <t>鑫合贷</t>
   </si>
   <si>
+    <t>P00650</t>
+  </si>
+  <si>
     <t>你我贷</t>
   </si>
   <si>
+    <t>P00651</t>
+  </si>
+  <si>
     <t>合拍在线</t>
   </si>
   <si>
+    <t>P00652</t>
+  </si>
+  <si>
     <t>链家理财</t>
   </si>
   <si>
+    <t>P00653</t>
+  </si>
+  <si>
     <t>易九金融</t>
   </si>
   <si>
+    <t>P00654</t>
+  </si>
+  <si>
     <t>国诚金融</t>
   </si>
   <si>
+    <t>P00655</t>
+  </si>
+  <si>
     <t>新新贷</t>
   </si>
   <si>
+    <t>P00656</t>
+  </si>
+  <si>
     <t>乐钱</t>
   </si>
   <si>
+    <t>P00657</t>
+  </si>
+  <si>
     <t>九斗鱼</t>
   </si>
   <si>
+    <t>P00658</t>
+  </si>
+  <si>
     <t>票金所</t>
   </si>
   <si>
+    <t>P00659</t>
+  </si>
+  <si>
     <t>PPmoney</t>
   </si>
   <si>
+    <t>P00660</t>
+  </si>
+  <si>
     <t>评贷网</t>
   </si>
   <si>
+    <t>P00661</t>
+  </si>
+  <si>
+    <t>P00662</t>
+  </si>
+  <si>
     <t>网贷基金</t>
   </si>
   <si>
     <t>旺财猫</t>
   </si>
   <si>
+    <t>P00663</t>
+  </si>
+  <si>
     <t>懒财网</t>
   </si>
   <si>
+    <t>P00664</t>
+  </si>
+  <si>
     <t>一两理财</t>
   </si>
   <si>
+    <t>P00665</t>
+  </si>
+  <si>
     <t>八条鱼</t>
   </si>
   <si>
+    <t>P00666</t>
+  </si>
+  <si>
     <t>投友圈</t>
   </si>
   <si>
+    <t>P00667</t>
+  </si>
+  <si>
     <t>银多资本</t>
   </si>
   <si>
+    <t>P00668</t>
+  </si>
+  <si>
     <t>PP基金</t>
   </si>
   <si>
+    <t>P00669</t>
+  </si>
+  <si>
     <t>真融宝</t>
   </si>
   <si>
+    <t>P00670</t>
+  </si>
+  <si>
     <t>米袋计划</t>
   </si>
   <si>
+    <t>P00671</t>
+  </si>
+  <si>
     <t>星火钱包</t>
+  </si>
+  <si>
+    <t>P00672</t>
   </si>
 </sst>
 </file>
@@ -1510,7 +2053,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1590,6 +2133,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1607,38 +2158,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1658,9 +2187,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1674,21 +2233,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1706,7 +2251,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1721,7 +2266,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1737,15 +2282,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1802,7 +2353,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1814,7 +2365,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1832,31 +2389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1868,19 +2407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1898,19 +2425,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1922,19 +2461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1946,7 +2473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1958,7 +2485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1977,6 +2504,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2023,8 +2574,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2032,19 +2598,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2073,17 +2628,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2093,10 +2644,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2108,94 +2659,106 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2204,38 +2767,26 @@
     <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2306,6 +2857,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2315,7 +2869,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2330,7 +2884,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2348,16 +2902,16 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2703,8 +3257,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2727,1040 +3281,1607 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="I4" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>6</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>12</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>14</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>16</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>18</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>20</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>22</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="6"/>
       <c r="B14" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>24</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="6"/>
       <c r="B15" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="6"/>
       <c r="B16" s="9" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>29</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="6"/>
       <c r="B17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>31</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="6"/>
       <c r="B18" s="9" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>34</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="6"/>
       <c r="B19" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>36</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="6"/>
       <c r="B20" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>39</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="12"/>
       <c r="B21" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>42</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="6"/>
       <c r="B22" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>45</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>47</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="6"/>
       <c r="B24" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>49</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>52</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="6"/>
       <c r="B26" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>55</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="6"/>
       <c r="B27" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>57</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="6"/>
       <c r="B28" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>60</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="6"/>
       <c r="B29" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>62</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="12"/>
       <c r="B30" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>64</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="18"/>
       <c r="B31" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>66</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="6"/>
       <c r="B32" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>68</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="6"/>
       <c r="B33" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>70</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="6"/>
       <c r="B34" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>72</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="6"/>
       <c r="B35" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>74</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="6"/>
       <c r="B36" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>76</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="6"/>
       <c r="B37" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>78</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="6"/>
       <c r="B38" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>80</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="12"/>
       <c r="B39" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>82</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>84</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="6"/>
       <c r="B41" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>86</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="7"/>
       <c r="B42" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>88</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="6"/>
       <c r="B43" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>90</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="7"/>
       <c r="B44" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>92</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="7"/>
       <c r="B45" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>94</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="7"/>
       <c r="B46" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>96</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="23"/>
       <c r="B47" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>98</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="7"/>
       <c r="B48" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>100</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="24"/>
       <c r="B49" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>102</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="7"/>
       <c r="B50" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>104</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="7"/>
       <c r="B51" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>106</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="7"/>
       <c r="B52" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>108</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="7"/>
       <c r="B53" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>110</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="7"/>
       <c r="B54" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>113</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="7"/>
       <c r="B55" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>115</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="7"/>
       <c r="B56" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>118</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="7"/>
       <c r="B57" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>120</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="7"/>
       <c r="B58" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>123</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="6"/>
       <c r="B59" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>125</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="25"/>
       <c r="B60" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>127</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I60" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="7"/>
       <c r="B61" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>129</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="7"/>
       <c r="B62" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>131</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="7"/>
       <c r="B63" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>133</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="7"/>
       <c r="B64" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>135</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="6"/>
       <c r="B65" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>137</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="6"/>
       <c r="B66" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>139</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="18"/>
-      <c r="B67" s="26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="B67" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="7"/>
-      <c r="B68" s="27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="B68" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="7"/>
-      <c r="B69" s="27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="B69" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="25"/>
-      <c r="B70" s="27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="B70" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="7"/>
-      <c r="B71" s="27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="B71" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="6"/>
-      <c r="B72" s="27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="B72" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="6"/>
-      <c r="B73" s="27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="B73" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="6"/>
-      <c r="B74" s="27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="B74" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="6"/>
       <c r="B75" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>157</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="7"/>
       <c r="B76" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>159</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="7"/>
-      <c r="B77" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="B77" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="7"/>
-      <c r="B78" s="27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="7"/>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="I79" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="7" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>167</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="7"/>
       <c r="B81" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="29"/>
+        <v>169</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="30"/>
       <c r="B82" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="29"/>
+        <v>171</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="30"/>
       <c r="B83" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="29"/>
+        <v>173</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="30"/>
       <c r="B84" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="30"/>
+        <v>175</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="31"/>
       <c r="B85" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="30"/>
+        <v>177</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="31"/>
       <c r="B86" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="29"/>
+        <v>179</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="30"/>
       <c r="B87" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="29"/>
+        <v>181</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="30"/>
       <c r="B88" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="29"/>
+        <v>183</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="30"/>
       <c r="B89" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>185</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="24"/>
       <c r="B90" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>187</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="6"/>
       <c r="B91" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>189</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="6"/>
       <c r="B92" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>191</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="6"/>
       <c r="B93" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>193</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="6"/>
       <c r="B94" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>195</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="6"/>
       <c r="B95" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="31"/>
+        <v>197</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="32"/>
       <c r="B96" s="17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="32"/>
-      <c r="B97" s="33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>199</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="33"/>
+      <c r="B97" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="6"/>
       <c r="B98" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>203</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="6"/>
       <c r="B99" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="34"/>
+        <v>205</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="35"/>
       <c r="B100" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>207</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="6"/>
       <c r="B101" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="35"/>
+        <v>209</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="36"/>
       <c r="B102" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="35"/>
+        <v>211</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="36"/>
       <c r="B103" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>213</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="6"/>
       <c r="B104" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>215</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="6"/>
       <c r="B105" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>217</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="18"/>
-      <c r="B106" s="36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+      <c r="B106" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="25"/>
-      <c r="B107" s="37" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+      <c r="B107" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="6"/>
       <c r="B108" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>223</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="6"/>
       <c r="B109" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>225</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="6"/>
       <c r="B110" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>227</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="6"/>
       <c r="B111" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>229</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="6"/>
       <c r="B112" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>231</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="6"/>
       <c r="B113" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>233</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="6"/>
       <c r="B114" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>235</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="6"/>
-      <c r="B115" s="36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+      <c r="B115" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="6"/>
       <c r="B116" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>239</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="6"/>
       <c r="B117" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>241</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="6"/>
-      <c r="B118" s="38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+      <c r="B118" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="6"/>
       <c r="B119" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>245</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="6"/>
-      <c r="B120" s="38" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+      <c r="B120" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="6"/>
-      <c r="B121" s="38" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+      <c r="B121" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="6"/>
-      <c r="B122" s="38" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+      <c r="B122" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="6"/>
-      <c r="B123" s="39" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+      <c r="B123" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="I123" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="6"/>
-      <c r="B124" s="38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+      <c r="B124" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="I124" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="6"/>
       <c r="B125" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>257</v>
+      </c>
+      <c r="I125" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="6"/>
-      <c r="B126" s="38" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+      <c r="B126" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="I126" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="6"/>
-      <c r="B127" s="40" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+      <c r="B127" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="I127" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="6"/>
-      <c r="B128" s="40" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+      <c r="B128" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="I128" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="6"/>
-      <c r="B129" s="40" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+      <c r="B129" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="I129" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="6"/>
-      <c r="B130" s="40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+      <c r="B130" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="I130" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="6"/>
-      <c r="B131" s="40" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+      <c r="B131" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="I131" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="6"/>
-      <c r="B132" s="40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+      <c r="B132" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="I132" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="6"/>
-      <c r="B133" s="40" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+      <c r="B133" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="I133" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="24"/>
-      <c r="B134" s="40" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+      <c r="B134" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="I134" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="7"/>
-      <c r="B135" s="41" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+      <c r="B135" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="I135" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="7"/>
       <c r="B136" s="25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>279</v>
+      </c>
+      <c r="I136" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="7"/>
       <c r="B137" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>281</v>
+      </c>
+      <c r="I137" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="7"/>
       <c r="B138" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>283</v>
+      </c>
+      <c r="I138" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="7"/>
       <c r="B139" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>285</v>
+      </c>
+      <c r="I139" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="7"/>
       <c r="B140" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>287</v>
+      </c>
+      <c r="I140" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="7"/>
       <c r="B141" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>289</v>
+      </c>
+      <c r="I141" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="6"/>
       <c r="B142" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>291</v>
+      </c>
+      <c r="I142" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="6"/>
       <c r="B143" s="18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>293</v>
+      </c>
+      <c r="I143" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="23"/>
       <c r="B144" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>295</v>
+      </c>
+      <c r="I144" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="7"/>
       <c r="B145" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>297</v>
+      </c>
+      <c r="I145" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="6"/>
       <c r="B146" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <v>299</v>
+      </c>
+      <c r="I146" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="6"/>
       <c r="B147" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
+        <v>301</v>
+      </c>
+      <c r="I147" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="6"/>
-    </row>
-    <row r="149" spans="1:2">
+      <c r="I148" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="24" t="s">
-        <v>150</v>
+        <v>304</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
+        <v>305</v>
+      </c>
+      <c r="I149" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="7"/>
       <c r="B150" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
+        <v>307</v>
+      </c>
+      <c r="I150" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="7"/>
       <c r="B151" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
+        <v>309</v>
+      </c>
+      <c r="I151" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="7"/>
       <c r="B152" s="24" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
+        <v>311</v>
+      </c>
+      <c r="I152" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="6"/>
       <c r="B153" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
+        <v>313</v>
+      </c>
+      <c r="I153" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="6"/>
       <c r="B154" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
+        <v>315</v>
+      </c>
+      <c r="I154" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="6"/>
       <c r="B155" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
+        <v>317</v>
+      </c>
+      <c r="I155" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="6"/>
       <c r="B156" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
+        <v>319</v>
+      </c>
+      <c r="I156" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="7"/>
       <c r="B157" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
+        <v>321</v>
+      </c>
+      <c r="I157" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="7"/>
       <c r="B158" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
+        <v>323</v>
+      </c>
+      <c r="I158" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="7"/>
       <c r="B159" s="14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
+        <v>325</v>
+      </c>
+      <c r="I159" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="6"/>
-      <c r="B160" s="38" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
+      <c r="B160" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="I160" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="25"/>
-      <c r="B161" s="38" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
+      <c r="B161" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="I161" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="6"/>
-      <c r="B162" s="38" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
+      <c r="B162" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="I162" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="6"/>
       <c r="B163" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
+        <v>333</v>
+      </c>
+      <c r="I163" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="6"/>
-      <c r="B164" s="42" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
+      <c r="B164" s="43" t="s">
+        <v>335</v>
+      </c>
+      <c r="I164" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="6"/>
-      <c r="B165" s="43"/>
-    </row>
-    <row r="166" spans="1:2">
+      <c r="B165" s="44"/>
+      <c r="I165" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="6" t="s">
-        <v>167</v>
+        <v>338</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
+        <v>339</v>
+      </c>
+      <c r="I166" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="6"/>
       <c r="B167" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
+        <v>341</v>
+      </c>
+      <c r="I167" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="6"/>
       <c r="B168" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
+        <v>343</v>
+      </c>
+      <c r="I168" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="6"/>
       <c r="B169" s="17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
+        <v>345</v>
+      </c>
+      <c r="I169" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="6"/>
       <c r="B170" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
+        <v>347</v>
+      </c>
+      <c r="I170" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="6"/>
       <c r="B171" s="17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="172" spans="2:2">
+        <v>349</v>
+      </c>
+      <c r="I171" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9">
       <c r="B172" s="17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2">
+        <v>351</v>
+      </c>
+      <c r="I172" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9">
       <c r="B173" s="17" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="174" spans="2:2">
+        <v>353</v>
+      </c>
+      <c r="I173" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9">
       <c r="B174" s="17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2">
+        <v>355</v>
+      </c>
+      <c r="I174" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9">
       <c r="B175" s="17" t="s">
-        <v>177</v>
+        <v>357</v>
+      </c>
+      <c r="I175" s="6" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/file/平台新标抓取计划时间表.xlsx
+++ b/file/平台新标抓取计划时间表.xlsx
@@ -2048,12 +2048,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2091,13 +2098,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -2123,17 +2123,17 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -2158,94 +2158,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2266,7 +2182,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2281,6 +2235,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2288,15 +2250,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2347,7 +2347,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2359,175 +2521,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2538,6 +2538,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2552,6 +2591,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2574,67 +2633,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2644,10 +2644,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2656,133 +2656,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2797,28 +2797,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
@@ -2833,7 +2833,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -2848,37 +2848,37 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2887,7 +2887,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3257,8 +3257,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3420,7 +3420,7 @@
       <c r="B18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>34</v>
       </c>
       <c r="I18" s="6" t="s">
@@ -3432,7 +3432,7 @@
       <c r="B19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>37</v>
       </c>
       <c r="I19" s="6" t="s">
@@ -3456,7 +3456,7 @@
       <c r="B21" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>43</v>
       </c>
       <c r="I21" s="6" t="s">
@@ -3468,7 +3468,7 @@
       <c r="B22" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>34</v>
       </c>
       <c r="I22" s="6" t="s">
@@ -3480,7 +3480,7 @@
       <c r="B23" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>43</v>
       </c>
       <c r="I23" s="6" t="s">
@@ -3492,7 +3492,7 @@
       <c r="B24" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>50</v>
       </c>
       <c r="I24" s="6" t="s">
@@ -3504,7 +3504,7 @@
       <c r="B25" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>53</v>
       </c>
       <c r="I25" s="6" t="s">
@@ -3516,7 +3516,7 @@
       <c r="B26" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>34</v>
       </c>
       <c r="I26" s="6" t="s">
@@ -3528,7 +3528,7 @@
       <c r="B27" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>58</v>
       </c>
       <c r="I27" s="6" t="s">
@@ -3662,7 +3662,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="7"/>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="23" t="s">
         <v>88</v>
       </c>
       <c r="I42" s="6" t="s">
@@ -3706,7 +3706,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="23"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="6" t="s">
         <v>98</v>
       </c>
@@ -3724,7 +3724,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="24"/>
+      <c r="A49" s="25"/>
       <c r="B49" s="6" t="s">
         <v>102</v>
       </c>
@@ -3764,7 +3764,7 @@
       <c r="B53" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="10" t="s">
         <v>111</v>
       </c>
       <c r="I53" s="6" t="s">
@@ -3776,7 +3776,7 @@
       <c r="B54" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="10" t="s">
         <v>29</v>
       </c>
       <c r="I54" s="6" t="s">
@@ -3800,7 +3800,7 @@
       <c r="B56" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="10" t="s">
         <v>116</v>
       </c>
       <c r="I56" s="6" t="s">
@@ -3812,7 +3812,7 @@
       <c r="B57" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="10" t="s">
         <v>121</v>
       </c>
       <c r="I57" s="6" t="s">
@@ -3824,7 +3824,7 @@
       <c r="B58" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="10" t="s">
         <v>43</v>
       </c>
       <c r="I58" s="6" t="s">
@@ -3836,7 +3836,7 @@
       <c r="B59" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="10" t="s">
         <v>29</v>
       </c>
       <c r="I59" s="6" t="s">
@@ -3844,14 +3844,14 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="25"/>
+      <c r="A60" s="26"/>
       <c r="B60" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I60" s="26" t="s">
+      <c r="I60" s="6" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3860,7 +3860,10 @@
       <c r="B61" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="I61" s="6" t="s">
+      <c r="C61" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I61" s="23" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3937,7 +3940,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="25"/>
+      <c r="A70" s="26"/>
       <c r="B70" s="28" t="s">
         <v>147</v>
       </c>
@@ -4116,7 +4119,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="24"/>
+      <c r="A90" s="25"/>
       <c r="B90" s="17" t="s">
         <v>187</v>
       </c>
@@ -4269,7 +4272,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="25"/>
+      <c r="A107" s="26"/>
       <c r="B107" s="38" t="s">
         <v>221</v>
       </c>
@@ -4512,7 +4515,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="24"/>
+      <c r="A134" s="25"/>
       <c r="B134" s="41" t="s">
         <v>275</v>
       </c>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="7"/>
-      <c r="B136" s="25" t="s">
+      <c r="B136" s="26" t="s">
         <v>279</v>
       </c>
       <c r="I136" s="6" t="s">
@@ -4602,7 +4605,7 @@
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="23"/>
+      <c r="A144" s="24"/>
       <c r="B144" s="7" t="s">
         <v>295</v>
       </c>
@@ -4621,7 +4624,7 @@
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="6"/>
-      <c r="B146" s="25" t="s">
+      <c r="B146" s="26" t="s">
         <v>299</v>
       </c>
       <c r="I146" s="6" t="s">
@@ -4644,7 +4647,7 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="24" t="s">
+      <c r="A149" s="25" t="s">
         <v>304</v>
       </c>
       <c r="B149" s="6" t="s">
@@ -4674,7 +4677,7 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="7"/>
-      <c r="B152" s="24" t="s">
+      <c r="B152" s="25" t="s">
         <v>311</v>
       </c>
       <c r="I152" s="6" t="s">
@@ -4754,7 +4757,7 @@
       </c>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="25"/>
+      <c r="A161" s="26"/>
       <c r="B161" s="39" t="s">
         <v>329</v>
       </c>

--- a/file/平台新标抓取计划时间表.xlsx
+++ b/file/平台新标抓取计划时间表.xlsx
@@ -897,7 +897,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373">
   <si>
     <r>
       <rPr>
@@ -1368,12 +1368,18 @@
     <t>神州通宝</t>
   </si>
   <si>
+    <t>(可抓取,目前没有招标中,等有的时候再抓.确保数据的正确性)</t>
+  </si>
+  <si>
     <t>P00560</t>
   </si>
   <si>
     <t>金融一号店</t>
   </si>
   <si>
+    <t>(url不可变,且数据并不全面)</t>
+  </si>
+  <si>
     <t>P00561</t>
   </si>
   <si>
@@ -1386,6 +1392,9 @@
     <t>好又贷</t>
   </si>
   <si>
+    <t>(url不变页面信息有点乱)</t>
+  </si>
+  <si>
     <t>P00563</t>
   </si>
   <si>
@@ -1608,24 +1617,36 @@
     <t>懒投资</t>
   </si>
   <si>
+    <t>(已完成.只抓了一个有用的平台&lt;懒人计划&gt;有一些producttype信息不全.)</t>
+  </si>
+  <si>
     <t>P00600</t>
   </si>
   <si>
     <t>短融网</t>
   </si>
   <si>
+    <t>(有反爬,解决后出现TypeError: unhashable type)</t>
+  </si>
+  <si>
     <t>P00601</t>
   </si>
   <si>
     <t>合力贷</t>
   </si>
   <si>
+    <t>(url不变)</t>
+  </si>
+  <si>
     <t>P00602</t>
   </si>
   <si>
     <t>爱财有道</t>
   </si>
   <si>
+    <t>(好抓取.等待新标出现.确保获取数据是正确的)</t>
+  </si>
+  <si>
     <t>P00603</t>
   </si>
   <si>
@@ -1638,12 +1659,18 @@
     <t>网信理财</t>
   </si>
   <si>
+    <t>(未完)</t>
+  </si>
+  <si>
     <t>P00605</t>
   </si>
   <si>
     <t>雪山贷</t>
   </si>
   <si>
+    <t>(url不变,数据好抓)</t>
+  </si>
+  <si>
     <t>P00606</t>
   </si>
   <si>
@@ -1656,28 +1683,43 @@
     <t>梧桐理财</t>
   </si>
   <si>
+    <t>(已完成,只有随心投类型符合)</t>
+  </si>
+  <si>
     <t>P00608</t>
   </si>
   <si>
     <t>安心de利</t>
   </si>
   <si>
+    <t>(好抓,等待新标出现)</t>
+  </si>
+  <si>
     <t>P00609</t>
   </si>
   <si>
     <t>桔子理财</t>
   </si>
   <si>
+    <t>(版块凌乱)</t>
+  </si>
+  <si>
     <t>P00610</t>
   </si>
   <si>
     <t>91快车</t>
   </si>
   <si>
+    <t>(网站打不开 )</t>
+  </si>
+  <si>
     <t>P00611</t>
   </si>
   <si>
     <t>拾财贷</t>
+  </si>
+  <si>
+    <t>(定期计划平台共享余额,留待观察)</t>
   </si>
   <si>
     <t>P00612</t>
@@ -2048,19 +2090,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2123,17 +2158,16 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -2146,6 +2180,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2165,53 +2207,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -2226,9 +2221,108 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2243,62 +2337,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2347,7 +2389,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2359,37 +2509,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2407,7 +2557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2419,115 +2569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2538,6 +2580,62 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2559,48 +2657,16 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2614,40 +2680,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2659,130 +2701,130 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2797,118 +2839,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3257,8 +3299,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3444,7 +3486,7 @@
       <c r="B20" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>40</v>
       </c>
       <c r="I20" s="6" t="s">
@@ -3452,7 +3494,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="12"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="9" t="s">
         <v>42</v>
       </c>
@@ -3465,7 +3507,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="6"/>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -3477,7 +3519,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="6"/>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -3489,7 +3531,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="6"/>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -3501,7 +3543,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="6"/>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>52</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -3513,7 +3555,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="6"/>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -3525,7 +3567,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="6"/>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -3537,7 +3579,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="6"/>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I28" s="6" t="s">
@@ -3546,7 +3588,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="6"/>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>62</v>
       </c>
       <c r="I29" s="6" t="s">
@@ -3554,8 +3596,8 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="12"/>
-      <c r="B30" s="17" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="16" t="s">
         <v>64</v>
       </c>
       <c r="I30" s="6" t="s">
@@ -3563,8 +3605,8 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="18"/>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="16" t="s">
         <v>66</v>
       </c>
       <c r="I31" s="6" t="s">
@@ -3573,7 +3615,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="6"/>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="18" t="s">
         <v>68</v>
       </c>
       <c r="I32" s="6" t="s">
@@ -3582,7 +3624,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="6"/>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>70</v>
       </c>
       <c r="I33" s="6" t="s">
@@ -3591,7 +3633,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="6"/>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="19" t="s">
         <v>72</v>
       </c>
       <c r="I34" s="6" t="s">
@@ -3600,7 +3642,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="6"/>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="19" t="s">
         <v>74</v>
       </c>
       <c r="I35" s="6" t="s">
@@ -3609,7 +3651,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="6"/>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>76</v>
       </c>
       <c r="I36" s="6" t="s">
@@ -3618,7 +3660,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="6"/>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>78</v>
       </c>
       <c r="I37" s="6" t="s">
@@ -3627,7 +3669,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="6"/>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="20" t="s">
         <v>80</v>
       </c>
       <c r="I38" s="6" t="s">
@@ -3635,8 +3677,8 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="12"/>
-      <c r="B39" s="22" t="s">
+      <c r="A39" s="11"/>
+      <c r="B39" s="21" t="s">
         <v>82</v>
       </c>
       <c r="I39" s="6" t="s">
@@ -3662,7 +3704,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="7"/>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="6" t="s">
         <v>88</v>
       </c>
       <c r="I42" s="6" t="s">
@@ -3706,7 +3748,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="24"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="6" t="s">
         <v>98</v>
       </c>
@@ -3724,7 +3766,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="25"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="6" t="s">
         <v>102</v>
       </c>
@@ -3761,7 +3803,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7"/>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="13" t="s">
         <v>110</v>
       </c>
       <c r="C53" s="10" t="s">
@@ -3773,7 +3815,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="7"/>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="13" t="s">
         <v>113</v>
       </c>
       <c r="C54" s="10" t="s">
@@ -3785,10 +3827,10 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7"/>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="10" t="s">
         <v>116</v>
       </c>
       <c r="I55" s="6" t="s">
@@ -3797,7 +3839,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="7"/>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="13" t="s">
         <v>118</v>
       </c>
       <c r="C56" s="10" t="s">
@@ -3809,7 +3851,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="7"/>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="13" t="s">
         <v>120</v>
       </c>
       <c r="C57" s="10" t="s">
@@ -3821,7 +3863,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="7"/>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="13" t="s">
         <v>123</v>
       </c>
       <c r="C58" s="10" t="s">
@@ -3833,7 +3875,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="6"/>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="13" t="s">
         <v>125</v>
       </c>
       <c r="C59" s="10" t="s">
@@ -3844,8 +3886,8 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="26"/>
-      <c r="B60" s="14" t="s">
+      <c r="A60" s="24"/>
+      <c r="B60" s="13" t="s">
         <v>127</v>
       </c>
       <c r="C60" s="10" t="s">
@@ -3857,20 +3899,23 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="7"/>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I61" s="23" t="s">
+      <c r="I61" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="7"/>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="13" t="s">
         <v>131</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>43</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>132</v>
@@ -3878,1013 +3923,1064 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="7"/>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="13" t="s">
         <v>133</v>
       </c>
+      <c r="C63" s="25" t="s">
+        <v>134</v>
+      </c>
       <c r="I63" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="7"/>
-      <c r="B64" s="14" t="s">
-        <v>135</v>
+      <c r="B64" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>137</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="6"/>
-      <c r="B65" s="14" t="s">
-        <v>137</v>
+      <c r="B65" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>116</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="6"/>
-      <c r="B66" s="14" t="s">
-        <v>139</v>
+      <c r="B66" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>142</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="18"/>
-      <c r="B67" s="27" t="s">
-        <v>141</v>
+      <c r="A67" s="17"/>
+      <c r="B67" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="7"/>
-      <c r="B68" s="28" t="s">
-        <v>143</v>
+      <c r="B68" s="27" t="s">
+        <v>146</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="7"/>
-      <c r="B69" s="28" t="s">
-        <v>145</v>
+      <c r="B69" s="27" t="s">
+        <v>148</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="26"/>
-      <c r="B70" s="28" t="s">
-        <v>147</v>
+      <c r="A70" s="24"/>
+      <c r="B70" s="27" t="s">
+        <v>150</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="7"/>
-      <c r="B71" s="28" t="s">
-        <v>149</v>
+      <c r="B71" s="27" t="s">
+        <v>152</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="6"/>
-      <c r="B72" s="28" t="s">
-        <v>151</v>
+      <c r="B72" s="27" t="s">
+        <v>154</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="6"/>
-      <c r="B73" s="28" t="s">
-        <v>153</v>
+      <c r="B73" s="27" t="s">
+        <v>156</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="6"/>
-      <c r="B74" s="28" t="s">
-        <v>155</v>
+      <c r="B74" s="27" t="s">
+        <v>158</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="6"/>
-      <c r="B75" s="17" t="s">
-        <v>157</v>
+      <c r="B75" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="7"/>
-      <c r="B76" s="17" t="s">
-        <v>159</v>
+      <c r="B76" s="16" t="s">
+        <v>162</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="7"/>
-      <c r="B77" s="29" t="s">
-        <v>161</v>
+      <c r="B77" s="28" t="s">
+        <v>164</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="7"/>
-      <c r="B78" s="28" t="s">
-        <v>163</v>
+      <c r="B78" s="27" t="s">
+        <v>166</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="7"/>
       <c r="I79" s="6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>167</v>
+        <v>169</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>170</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="7"/>
-      <c r="B81" s="17" t="s">
-        <v>169</v>
+      <c r="B81" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="30"/>
-      <c r="B82" s="17" t="s">
-        <v>171</v>
+      <c r="A82" s="29"/>
+      <c r="B82" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="30"/>
-      <c r="B83" s="17" t="s">
-        <v>173</v>
+      <c r="A83" s="29"/>
+      <c r="B83" s="16" t="s">
+        <v>176</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="30"/>
-      <c r="B84" s="17" t="s">
-        <v>175</v>
+      <c r="A84" s="29"/>
+      <c r="B84" s="16" t="s">
+        <v>178</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="31"/>
-      <c r="B85" s="17" t="s">
-        <v>177</v>
+      <c r="A85" s="30"/>
+      <c r="B85" s="16" t="s">
+        <v>180</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="31"/>
-      <c r="B86" s="17" t="s">
-        <v>179</v>
+      <c r="A86" s="30"/>
+      <c r="B86" s="16" t="s">
+        <v>182</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="30"/>
-      <c r="B87" s="17" t="s">
-        <v>181</v>
+      <c r="A87" s="29"/>
+      <c r="B87" s="16" t="s">
+        <v>184</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="30"/>
-      <c r="B88" s="17" t="s">
-        <v>183</v>
+      <c r="A88" s="29"/>
+      <c r="B88" s="16" t="s">
+        <v>186</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="30"/>
-      <c r="B89" s="17" t="s">
-        <v>185</v>
+      <c r="A89" s="29"/>
+      <c r="B89" s="16" t="s">
+        <v>188</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="25"/>
-      <c r="B90" s="17" t="s">
-        <v>187</v>
+      <c r="A90" s="23"/>
+      <c r="B90" s="16" t="s">
+        <v>190</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="6"/>
-      <c r="B91" s="17" t="s">
-        <v>189</v>
+      <c r="B91" s="16" t="s">
+        <v>192</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="6"/>
-      <c r="B92" s="17" t="s">
-        <v>191</v>
+      <c r="B92" s="16" t="s">
+        <v>194</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="6"/>
-      <c r="B93" s="17" t="s">
-        <v>193</v>
+      <c r="B93" s="16" t="s">
+        <v>196</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="6"/>
-      <c r="B94" s="17" t="s">
-        <v>195</v>
+      <c r="B94" s="16" t="s">
+        <v>198</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="6"/>
-      <c r="B95" s="17" t="s">
-        <v>197</v>
+      <c r="B95" s="16" t="s">
+        <v>200</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="32"/>
-      <c r="B96" s="17" t="s">
-        <v>199</v>
+      <c r="A96" s="31"/>
+      <c r="B96" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="33"/>
-      <c r="B97" s="34" t="s">
-        <v>201</v>
+      <c r="A97" s="32"/>
+      <c r="B97" s="33" t="s">
+        <v>204</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="6"/>
-      <c r="B98" s="17" t="s">
-        <v>203</v>
+      <c r="B98" s="16" t="s">
+        <v>206</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="6"/>
-      <c r="B99" s="17" t="s">
-        <v>205</v>
+      <c r="B99" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="35"/>
-      <c r="B100" s="17" t="s">
-        <v>207</v>
+      <c r="A100" s="34"/>
+      <c r="B100" s="16" t="s">
+        <v>210</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="6"/>
-      <c r="B101" s="17" t="s">
-        <v>209</v>
+      <c r="B101" s="16" t="s">
+        <v>212</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="36"/>
-      <c r="B102" s="17" t="s">
-        <v>211</v>
+      <c r="A102" s="35"/>
+      <c r="B102" s="16" t="s">
+        <v>214</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="36"/>
-      <c r="B103" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="I103" s="6" t="s">
-        <v>214</v>
+      <c r="A103" s="35"/>
+      <c r="B103" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="I103" s="41" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="6"/>
-      <c r="B104" s="14" t="s">
-        <v>215</v>
+      <c r="B104" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C104" s="25" t="s">
+        <v>220</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="6"/>
-      <c r="B105" s="14" t="s">
-        <v>217</v>
+      <c r="B105" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C105" s="25" t="s">
+        <v>223</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="18"/>
-      <c r="B106" s="37" t="s">
-        <v>219</v>
+      <c r="A106" s="17"/>
+      <c r="B106" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>226</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="26"/>
-      <c r="B107" s="38" t="s">
-        <v>221</v>
+      <c r="A107" s="24"/>
+      <c r="B107" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="C107" t="s">
+        <v>226</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="6"/>
-      <c r="B108" s="14" t="s">
-        <v>223</v>
+      <c r="B108" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>231</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="6"/>
-      <c r="B109" s="14" t="s">
-        <v>225</v>
+      <c r="B109" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C109" s="25" t="s">
+        <v>234</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="6"/>
-      <c r="B110" s="14" t="s">
-        <v>227</v>
+      <c r="B110" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C110" s="25" t="s">
+        <v>223</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="6"/>
-      <c r="B111" s="14" t="s">
-        <v>229</v>
+      <c r="B111" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C111" s="25" t="s">
+        <v>239</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="6"/>
-      <c r="B112" s="14" t="s">
-        <v>231</v>
+      <c r="B112" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>242</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="6"/>
-      <c r="B113" s="14" t="s">
-        <v>233</v>
+      <c r="B113" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C113" s="25" t="s">
+        <v>245</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="6"/>
-      <c r="B114" s="14" t="s">
-        <v>235</v>
+      <c r="B114" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>248</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="6"/>
-      <c r="B115" s="37" t="s">
-        <v>237</v>
+      <c r="B115" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C115" s="25" t="s">
+        <v>251</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="6"/>
-      <c r="B116" s="14" t="s">
-        <v>239</v>
+      <c r="B116" s="13" t="s">
+        <v>253</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="6"/>
-      <c r="B117" s="14" t="s">
-        <v>241</v>
+      <c r="B117" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="6"/>
-      <c r="B118" s="39" t="s">
-        <v>243</v>
+      <c r="B118" s="38" t="s">
+        <v>257</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="6"/>
-      <c r="B119" s="14" t="s">
-        <v>245</v>
+      <c r="B119" s="13" t="s">
+        <v>259</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="6"/>
-      <c r="B120" s="39" t="s">
-        <v>247</v>
+      <c r="B120" s="38" t="s">
+        <v>261</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="6"/>
-      <c r="B121" s="39" t="s">
-        <v>249</v>
+      <c r="B121" s="38" t="s">
+        <v>263</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="6"/>
-      <c r="B122" s="39" t="s">
-        <v>251</v>
+      <c r="B122" s="38" t="s">
+        <v>265</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="6"/>
-      <c r="B123" s="40" t="s">
-        <v>253</v>
+      <c r="B123" s="39" t="s">
+        <v>267</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="6"/>
-      <c r="B124" s="39" t="s">
-        <v>255</v>
+      <c r="B124" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="6"/>
-      <c r="B125" s="13" t="s">
-        <v>257</v>
+      <c r="B125" s="12" t="s">
+        <v>271</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="6"/>
-      <c r="B126" s="39" t="s">
-        <v>259</v>
+      <c r="B126" s="38" t="s">
+        <v>273</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="6"/>
-      <c r="B127" s="41" t="s">
-        <v>261</v>
+      <c r="B127" s="40" t="s">
+        <v>275</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="6"/>
-      <c r="B128" s="41" t="s">
-        <v>263</v>
+      <c r="B128" s="40" t="s">
+        <v>277</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="6"/>
-      <c r="B129" s="41" t="s">
-        <v>265</v>
+      <c r="B129" s="40" t="s">
+        <v>279</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="6"/>
-      <c r="B130" s="41" t="s">
-        <v>267</v>
+      <c r="B130" s="40" t="s">
+        <v>281</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="6"/>
-      <c r="B131" s="41" t="s">
-        <v>269</v>
+      <c r="B131" s="40" t="s">
+        <v>283</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="6"/>
-      <c r="B132" s="41" t="s">
-        <v>271</v>
+      <c r="B132" s="40" t="s">
+        <v>285</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="6"/>
-      <c r="B133" s="41" t="s">
-        <v>273</v>
+      <c r="B133" s="40" t="s">
+        <v>287</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="25"/>
-      <c r="B134" s="41" t="s">
-        <v>275</v>
+      <c r="A134" s="23"/>
+      <c r="B134" s="40" t="s">
+        <v>289</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="7"/>
       <c r="B135" s="42" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="7"/>
-      <c r="B136" s="26" t="s">
-        <v>279</v>
+      <c r="B136" s="24" t="s">
+        <v>293</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="7"/>
       <c r="B137" s="7" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="7"/>
       <c r="B138" s="7" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="7"/>
       <c r="B139" s="7" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="7"/>
       <c r="B140" s="7" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="7"/>
       <c r="B141" s="6" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="6"/>
       <c r="B142" s="6" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="6"/>
-      <c r="B143" s="18" t="s">
-        <v>293</v>
+      <c r="B143" s="17" t="s">
+        <v>307</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="24"/>
+      <c r="A144" s="22"/>
       <c r="B144" s="7" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="7"/>
       <c r="B145" s="7" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="6"/>
-      <c r="B146" s="26" t="s">
-        <v>299</v>
+      <c r="B146" s="24" t="s">
+        <v>313</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="6"/>
       <c r="B147" s="7" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="6"/>
       <c r="I148" s="6" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="25" t="s">
-        <v>304</v>
+      <c r="A149" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="7"/>
       <c r="B150" s="6" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="7"/>
       <c r="B151" s="6" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="7"/>
-      <c r="B152" s="25" t="s">
-        <v>311</v>
+      <c r="B152" s="23" t="s">
+        <v>325</v>
       </c>
       <c r="I152" s="6" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="6"/>
       <c r="B153" s="7" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="6"/>
       <c r="B154" s="7" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="I154" s="6" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="6"/>
       <c r="B155" s="7" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="6"/>
       <c r="B156" s="6" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="7"/>
       <c r="B157" s="6" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="I157" s="6" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="7"/>
-      <c r="B158" s="14" t="s">
-        <v>323</v>
+      <c r="B158" s="13" t="s">
+        <v>337</v>
       </c>
       <c r="I158" s="6" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="7"/>
-      <c r="B159" s="14" t="s">
-        <v>325</v>
+      <c r="B159" s="13" t="s">
+        <v>339</v>
       </c>
       <c r="I159" s="6" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="6"/>
-      <c r="B160" s="39" t="s">
-        <v>327</v>
+      <c r="B160" s="38" t="s">
+        <v>341</v>
       </c>
       <c r="I160" s="6" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="26"/>
-      <c r="B161" s="39" t="s">
-        <v>329</v>
+      <c r="A161" s="24"/>
+      <c r="B161" s="38" t="s">
+        <v>343</v>
       </c>
       <c r="I161" s="6" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="6"/>
-      <c r="B162" s="39" t="s">
-        <v>331</v>
+      <c r="B162" s="38" t="s">
+        <v>345</v>
       </c>
       <c r="I162" s="6" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="6"/>
-      <c r="B163" s="14" t="s">
-        <v>333</v>
+      <c r="B163" s="13" t="s">
+        <v>347</v>
       </c>
       <c r="I163" s="6" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="6"/>
       <c r="B164" s="43" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="I164" s="6" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="6"/>
       <c r="B165" s="44"/>
       <c r="I165" s="6" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="B166" s="14" t="s">
-        <v>339</v>
+        <v>352</v>
+      </c>
+      <c r="B166" s="13" t="s">
+        <v>353</v>
       </c>
       <c r="I166" s="6" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="6"/>
-      <c r="B167" s="14" t="s">
-        <v>341</v>
+      <c r="B167" s="13" t="s">
+        <v>355</v>
       </c>
       <c r="I167" s="6" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="6"/>
-      <c r="B168" s="17" t="s">
-        <v>343</v>
+      <c r="B168" s="16" t="s">
+        <v>357</v>
       </c>
       <c r="I168" s="6" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="6"/>
-      <c r="B169" s="17" t="s">
-        <v>345</v>
+      <c r="B169" s="16" t="s">
+        <v>359</v>
       </c>
       <c r="I169" s="6" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="6"/>
-      <c r="B170" s="17" t="s">
-        <v>347</v>
+      <c r="B170" s="16" t="s">
+        <v>361</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" s="6"/>
-      <c r="B171" s="17" t="s">
-        <v>349</v>
+      <c r="B171" s="16" t="s">
+        <v>363</v>
       </c>
       <c r="I171" s="6" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
     </row>
     <row r="172" spans="2:9">
-      <c r="B172" s="17" t="s">
-        <v>351</v>
+      <c r="B172" s="16" t="s">
+        <v>365</v>
       </c>
       <c r="I172" s="6" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
     </row>
     <row r="173" spans="2:9">
-      <c r="B173" s="17" t="s">
-        <v>353</v>
+      <c r="B173" s="16" t="s">
+        <v>367</v>
       </c>
       <c r="I173" s="6" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
     </row>
     <row r="174" spans="2:9">
-      <c r="B174" s="17" t="s">
-        <v>355</v>
+      <c r="B174" s="16" t="s">
+        <v>369</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
     </row>
     <row r="175" spans="2:9">
-      <c r="B175" s="17" t="s">
-        <v>357</v>
+      <c r="B175" s="16" t="s">
+        <v>371</v>
       </c>
       <c r="I175" s="6" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
